--- a/data_processed/20250822/BTCUSDVOLSURFACE_20250822.xlsx
+++ b/data_processed/20250822/BTCUSDVOLSURFACE_20250822.xlsx
@@ -1394,7 +1394,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -40775,7 +40775,7 @@
       </c>
       <c r="G1526" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250822/BTCUSDVOLSURFACE_20250822.xlsx
+++ b/data_processed/20250822/BTCUSDVOLSURFACE_20250822.xlsx
@@ -1394,7 +1394,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8537,7 +8537,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8678,7 +8678,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8873,7 +8873,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8927,7 +8927,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9010,7 +9010,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14265,7 +14265,7 @@
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14323,7 +14323,7 @@
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -40775,7 +40775,7 @@
       </c>
       <c r="G1526" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
